--- a/trial_balance_cashflow.xlsx
+++ b/trial_balance_cashflow.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avinash/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF65248-1BB4-8042-9167-487EEACD984A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0171CB-7A03-8440-A3D5-D68FFC86EB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -114,6 +127,15 @@
   <si>
     <t>Cash at Bank</t>
   </si>
+  <si>
+    <t>Net Assets</t>
+  </si>
+  <si>
+    <t>PayCheck</t>
+  </si>
+  <si>
+    <t>Homecare</t>
+  </si>
 </sst>
 </file>
 
@@ -139,12 +161,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -174,12 +202,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,17 +514,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E308"/>
+  <dimension ref="A1:E305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C292" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R310" sqref="R310"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -515,289 +546,288 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>45322</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>13592</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="4">
+        <v>100</v>
+      </c>
+      <c r="E2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>45322</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
-        <v>23653</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="4">
+        <v>100</v>
+      </c>
+      <c r="E3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>45322</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>44784</v>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>45322</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>50358</v>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>45322</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>72401</v>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>45322</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7">
-        <v>51827</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="4">
+        <v>50</v>
+      </c>
+      <c r="E7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>45322</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>5231</v>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>11533</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>45322</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>22527</v>
-      </c>
-      <c r="E9">
+      <c r="A9" s="3">
+        <v>45351</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4">
+        <v>500</v>
+      </c>
+      <c r="E9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>45322</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>11533</v>
+      <c r="A10" s="3">
+        <v>45351</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4">
+        <v>250</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>45351</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>23218</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>45351</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>36389</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+      <c r="B12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <f>750-60</f>
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>45351</v>
       </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>70517</v>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>45351</v>
       </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>67017</v>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4">
+        <v>40</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>45351</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>79993</v>
+        <v>19</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>45351</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>53918</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>20954</v>
       </c>
       <c r="E17">
-        <v>18193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>75297</v>
+        <v>79296</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -805,19 +835,19 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>45351</v>
+        <v>45382</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>68888</v>
+        <v>69206</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -825,16 +855,16 @@
         <v>45382</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>20954</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>17377</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -842,16 +872,16 @@
         <v>45382</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>79296</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>76652</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -859,16 +889,16 @@
         <v>45382</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>72001</v>
       </c>
       <c r="E22">
-        <v>69206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -876,16 +906,16 @@
         <v>45382</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>17377</v>
+        <v>35533</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -893,16 +923,16 @@
         <v>45382</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>36641</v>
       </c>
       <c r="E24">
-        <v>76652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -910,47 +940,47 @@
         <v>45382</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>72001</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>71056</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>57299</v>
       </c>
       <c r="E26">
-        <v>35533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>36641</v>
+        <v>77724</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -958,19 +988,19 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>45382</v>
+        <v>45412</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>71056</v>
+        <v>33277</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -978,16 +1008,16 @@
         <v>45412</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>57299</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>65723</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -995,16 +1025,16 @@
         <v>45412</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>77724</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>61282</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1012,16 +1042,16 @@
         <v>45412</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>43164</v>
       </c>
       <c r="E31">
-        <v>33277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1029,16 +1059,16 @@
         <v>45412</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>65723</v>
+        <v>20860</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1046,16 +1076,16 @@
         <v>45412</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>27312</v>
       </c>
       <c r="E33">
-        <v>61282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1063,47 +1093,47 @@
         <v>45412</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>43164</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>23479</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>34428</v>
       </c>
       <c r="E35">
-        <v>20860</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>27312</v>
+        <v>37597</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1111,19 +1141,19 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>45412</v>
+        <v>45443</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>23479</v>
+        <v>40625</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1131,16 +1161,16 @@
         <v>45443</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>34428</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>58879</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1148,16 +1178,16 @@
         <v>45443</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>37597</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>16893</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1165,16 +1195,16 @@
         <v>45443</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>56349</v>
       </c>
       <c r="E40">
-        <v>40625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1182,16 +1212,16 @@
         <v>45443</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>58879</v>
+        <v>9329</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1199,16 +1229,16 @@
         <v>45443</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>60292</v>
       </c>
       <c r="E42">
-        <v>16893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1216,47 +1246,47 @@
         <v>45443</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>56349</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>79248</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>72449</v>
       </c>
       <c r="E44">
-        <v>9329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>60292</v>
+        <v>34512</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1264,19 +1294,19 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>45443</v>
+        <v>45473</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>79248</v>
+        <v>72476</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1284,16 +1314,16 @@
         <v>45473</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>72449</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>39664</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1301,16 +1331,16 @@
         <v>45473</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>34512</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>66342</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1318,16 +1348,16 @@
         <v>45473</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>31357</v>
       </c>
       <c r="E49">
-        <v>72476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1335,16 +1365,16 @@
         <v>45473</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>35077</v>
       </c>
       <c r="E50">
-        <v>39664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1352,16 +1382,16 @@
         <v>45473</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>43625</v>
       </c>
       <c r="E51">
-        <v>66342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1369,30 +1399,30 @@
         <v>45473</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D52">
-        <v>31357</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>62875</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D53">
-        <v>35077</v>
+        <v>34862</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1400,16 +1430,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D54">
-        <v>43625</v>
+        <v>65611</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1417,19 +1447,19 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>45473</v>
+        <v>45504</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>62875</v>
+        <v>68724</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1437,16 +1467,16 @@
         <v>45504</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D56">
-        <v>34862</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>57045</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1454,16 +1484,16 @@
         <v>45504</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D57">
-        <v>65611</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>62384</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1471,16 +1501,16 @@
         <v>45504</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>37587</v>
       </c>
       <c r="E58">
-        <v>68724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1488,16 +1518,16 @@
         <v>45504</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59">
-        <v>57045</v>
+        <v>49657</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1505,16 +1535,16 @@
         <v>45504</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>10802</v>
       </c>
       <c r="E60">
-        <v>62384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1522,47 +1552,47 @@
         <v>45504</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D61">
-        <v>37587</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>79668</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>65096</v>
       </c>
       <c r="E62">
-        <v>49657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D63">
-        <v>10802</v>
+        <v>37913</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1570,19 +1600,19 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>45504</v>
+        <v>45535</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>79668</v>
+        <v>41439</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -1590,16 +1620,16 @@
         <v>45535</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D65">
-        <v>65096</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>40889</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1607,16 +1637,16 @@
         <v>45535</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D66">
-        <v>37913</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>74910</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1624,16 +1654,16 @@
         <v>45535</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>18748</v>
       </c>
       <c r="E67">
-        <v>41439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1641,16 +1671,16 @@
         <v>45535</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>40889</v>
+        <v>34027</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -1658,16 +1688,16 @@
         <v>45535</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>40582</v>
       </c>
       <c r="E69">
-        <v>74910</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1675,47 +1705,47 @@
         <v>45535</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D70">
-        <v>18748</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>77612</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>37232</v>
       </c>
       <c r="E71">
-        <v>34027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D72">
-        <v>40582</v>
+        <v>65980</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1723,19 +1753,19 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>77612</v>
+        <v>28481</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -1743,16 +1773,16 @@
         <v>45565</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D74">
-        <v>37232</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>66856</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -1760,16 +1790,16 @@
         <v>45565</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D75">
-        <v>65980</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>63787</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -1777,16 +1807,16 @@
         <v>45565</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>79250</v>
       </c>
       <c r="E76">
-        <v>28481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -1794,16 +1824,16 @@
         <v>45565</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>17256</v>
       </c>
       <c r="E77">
-        <v>66856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -1811,16 +1841,16 @@
         <v>45565</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>49850</v>
       </c>
       <c r="E78">
-        <v>63787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -1828,30 +1858,30 @@
         <v>45565</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D79">
-        <v>79250</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>15767</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D80">
-        <v>17256</v>
+        <v>56073</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1859,16 +1889,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D81">
-        <v>49850</v>
+        <v>70215</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1876,19 +1906,19 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>45565</v>
+        <v>45596</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82">
-        <v>15767</v>
+        <v>55233</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -1896,16 +1926,16 @@
         <v>45596</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D83">
-        <v>56073</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>70335</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -1913,16 +1943,16 @@
         <v>45596</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D84">
-        <v>70215</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>37734</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -1930,16 +1960,16 @@
         <v>45596</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>70178</v>
       </c>
       <c r="E85">
-        <v>55233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -1947,16 +1977,16 @@
         <v>45596</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>17126</v>
       </c>
       <c r="E86">
-        <v>70335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -1964,16 +1994,16 @@
         <v>45596</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>51775</v>
       </c>
       <c r="E87">
-        <v>37734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -1981,30 +2011,30 @@
         <v>45596</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D88">
-        <v>70178</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>11511</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>45596</v>
+        <v>45626</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D89">
-        <v>17126</v>
+        <v>63982</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2012,16 +2042,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>45596</v>
+        <v>45626</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D90">
-        <v>51775</v>
+        <v>39815</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2029,19 +2059,19 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>45596</v>
+        <v>45626</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91">
-        <v>11511</v>
+        <v>14579</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2049,16 +2079,16 @@
         <v>45626</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D92">
-        <v>63982</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>14344</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -2066,16 +2096,16 @@
         <v>45626</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D93">
-        <v>39815</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>27275</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2083,16 +2113,16 @@
         <v>45626</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>40975</v>
       </c>
       <c r="E94">
-        <v>14579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -2100,16 +2130,16 @@
         <v>45626</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D95">
         <v>0</v>
       </c>
       <c r="E95">
-        <v>14344</v>
+        <v>43012</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -2117,16 +2147,16 @@
         <v>45626</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>59625</v>
       </c>
       <c r="E96">
-        <v>27275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2134,47 +2164,47 @@
         <v>45626</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D97">
-        <v>40975</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>54822</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>67577</v>
       </c>
       <c r="E98">
-        <v>43012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D99">
-        <v>59625</v>
+        <v>73288</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2182,19 +2212,19 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>45626</v>
+        <v>45657</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>54822</v>
+        <v>17677</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2202,16 +2232,16 @@
         <v>45657</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D101">
-        <v>67577</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>57465</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2219,16 +2249,16 @@
         <v>45657</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D102">
-        <v>73288</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>22292</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -2236,16 +2266,16 @@
         <v>45657</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>18102</v>
       </c>
       <c r="E103">
-        <v>17677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2253,16 +2283,16 @@
         <v>45657</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>21178</v>
       </c>
       <c r="E104">
-        <v>57465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2270,16 +2300,16 @@
         <v>45657</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>75708</v>
       </c>
       <c r="E105">
-        <v>22292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2287,30 +2317,30 @@
         <v>45657</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D106">
-        <v>18102</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>54398</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>45657</v>
+        <v>45688</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D107">
-        <v>21178</v>
+        <v>10037</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2318,16 +2348,16 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>45657</v>
+        <v>45688</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D108">
-        <v>75708</v>
+        <v>29057</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2335,19 +2365,19 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>45657</v>
+        <v>45688</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D109">
         <v>0</v>
       </c>
       <c r="E109">
-        <v>54398</v>
+        <v>71366</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2355,16 +2385,16 @@
         <v>45688</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D110">
-        <v>10037</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>19035</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -2372,16 +2402,16 @@
         <v>45688</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D111">
-        <v>29057</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>73697</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2389,16 +2419,16 @@
         <v>45688</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>67788</v>
       </c>
       <c r="E112">
-        <v>71366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -2406,16 +2436,16 @@
         <v>45688</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>47548</v>
       </c>
       <c r="E113">
-        <v>19035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2423,16 +2453,16 @@
         <v>45688</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>58106</v>
       </c>
       <c r="E114">
-        <v>73697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -2440,30 +2470,30 @@
         <v>45688</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D115">
-        <v>67788</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>43021</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>45688</v>
+        <v>45716</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D116">
-        <v>47548</v>
+        <v>58297</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -2471,16 +2501,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>45688</v>
+        <v>45716</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D117">
-        <v>58106</v>
+        <v>28123</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -2488,19 +2518,19 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>45688</v>
+        <v>45716</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D118">
         <v>0</v>
       </c>
       <c r="E118">
-        <v>43021</v>
+        <v>14206</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -2508,16 +2538,16 @@
         <v>45716</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D119">
-        <v>58297</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>20860</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -2525,16 +2555,16 @@
         <v>45716</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D120">
-        <v>28123</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>75290</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -2542,16 +2572,16 @@
         <v>45716</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>36018</v>
       </c>
       <c r="E121">
-        <v>14206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -2559,16 +2589,16 @@
         <v>45716</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <v>20860</v>
+        <v>32208</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -2576,16 +2606,16 @@
         <v>45716</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>70116</v>
       </c>
       <c r="E123">
-        <v>75290</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -2593,47 +2623,47 @@
         <v>45716</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D124">
-        <v>36018</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>71389</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>45716</v>
+        <v>45747</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>19902</v>
       </c>
       <c r="E125">
-        <v>32208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>45716</v>
+        <v>45747</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D126">
-        <v>70116</v>
+        <v>48302</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -2641,19 +2671,19 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>45716</v>
+        <v>45747</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127">
-        <v>71389</v>
+        <v>14889</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -2661,16 +2691,16 @@
         <v>45747</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D128">
-        <v>19902</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>54631</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -2678,16 +2708,16 @@
         <v>45747</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D129">
-        <v>48302</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>31026</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -2695,16 +2725,16 @@
         <v>45747</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>26310</v>
       </c>
       <c r="E130">
-        <v>14889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -2712,16 +2742,16 @@
         <v>45747</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D131">
         <v>0</v>
       </c>
       <c r="E131">
-        <v>54631</v>
+        <v>47436</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -2729,16 +2759,16 @@
         <v>45747</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>43503</v>
       </c>
       <c r="E132">
-        <v>31026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -2746,47 +2776,47 @@
         <v>45747</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D133">
-        <v>26310</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>36334</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>58641</v>
       </c>
       <c r="E134">
-        <v>47436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D135">
-        <v>43503</v>
+        <v>23107</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -2794,19 +2824,19 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>36334</v>
+        <v>49381</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -2814,16 +2844,16 @@
         <v>45777</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D137">
-        <v>58641</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>37596</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -2831,16 +2861,16 @@
         <v>45777</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D138">
-        <v>23107</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>74886</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -2848,16 +2878,16 @@
         <v>45777</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>28735</v>
       </c>
       <c r="E139">
-        <v>49381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -2865,16 +2895,16 @@
         <v>45777</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>33438</v>
       </c>
       <c r="E140">
-        <v>37596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -2882,16 +2912,16 @@
         <v>45777</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>35247</v>
       </c>
       <c r="E141">
-        <v>74886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -2899,30 +2929,30 @@
         <v>45777</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D142">
-        <v>28735</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>21667</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>45777</v>
+        <v>45808</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D143">
-        <v>33438</v>
+        <v>39168</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -2930,16 +2960,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>45777</v>
+        <v>45808</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D144">
-        <v>35247</v>
+        <v>36942</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -2947,19 +2977,19 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>45777</v>
+        <v>45808</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D145">
         <v>0</v>
       </c>
       <c r="E145">
-        <v>21667</v>
+        <v>43106</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -2967,16 +2997,16 @@
         <v>45808</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D146">
-        <v>39168</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>39718</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -2984,16 +3014,16 @@
         <v>45808</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D147">
-        <v>36942</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>73522</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -3001,16 +3031,16 @@
         <v>45808</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>11306</v>
       </c>
       <c r="E148">
-        <v>43106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -3018,16 +3048,16 @@
         <v>45808</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D149">
         <v>0</v>
       </c>
       <c r="E149">
-        <v>39718</v>
+        <v>19803</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -3035,16 +3065,16 @@
         <v>45808</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>75964</v>
       </c>
       <c r="E150">
-        <v>73522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -3052,81 +3082,81 @@
         <v>45808</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D151">
-        <v>11306</v>
+        <v>0</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>56183</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>45808</v>
+        <v>45322</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>13592</v>
       </c>
       <c r="E152">
-        <v>19803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>45808</v>
+        <v>45292</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D153">
-        <v>75964</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>45808</v>
+        <v>45292</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E154">
-        <v>56183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>45322</v>
+        <v>45292</v>
       </c>
       <c r="B155" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C155" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D155">
-        <v>13592</v>
+        <v>10000</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -3137,16 +3167,16 @@
         <v>45292</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E156">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -3154,10 +3184,10 @@
         <v>45292</v>
       </c>
       <c r="B157" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C157" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D157">
         <v>10000</v>
@@ -3171,10 +3201,10 @@
         <v>45292</v>
       </c>
       <c r="B158" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C158" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D158">
         <v>10000</v>
@@ -3188,16 +3218,16 @@
         <v>45292</v>
       </c>
       <c r="B159" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C159" t="s">
         <v>20</v>
       </c>
       <c r="D159">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -3205,16 +3235,16 @@
         <v>45292</v>
       </c>
       <c r="B160" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D160">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -3222,13 +3252,13 @@
         <v>45292</v>
       </c>
       <c r="B161" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C161" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D161">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -3236,13 +3266,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B162" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -3253,33 +3283,33 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B163" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C163" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E163">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B164" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C164" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D164">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -3290,16 +3320,16 @@
         <v>45323</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C165" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E165">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -3307,10 +3337,10 @@
         <v>45323</v>
       </c>
       <c r="B166" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C166" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D166">
         <v>10000</v>
@@ -3324,10 +3354,10 @@
         <v>45323</v>
       </c>
       <c r="B167" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D167">
         <v>10000</v>
@@ -3341,16 +3371,16 @@
         <v>45323</v>
       </c>
       <c r="B168" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C168" t="s">
         <v>20</v>
       </c>
       <c r="D168">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -3358,16 +3388,16 @@
         <v>45323</v>
       </c>
       <c r="B169" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C169" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D169">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -3375,13 +3405,13 @@
         <v>45323</v>
       </c>
       <c r="B170" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D170">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -3389,13 +3419,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B171" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C171" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -3406,33 +3436,33 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B172" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C172" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D172">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E172">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="B173" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C173" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D173">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -3443,16 +3473,16 @@
         <v>45352</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C174" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E174">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -3460,10 +3490,10 @@
         <v>45352</v>
       </c>
       <c r="B175" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C175" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D175">
         <v>10000</v>
@@ -3477,10 +3507,10 @@
         <v>45352</v>
       </c>
       <c r="B176" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C176" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D176">
         <v>10000</v>
@@ -3494,16 +3524,16 @@
         <v>45352</v>
       </c>
       <c r="B177" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C177" t="s">
         <v>20</v>
       </c>
       <c r="D177">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -3511,16 +3541,16 @@
         <v>45352</v>
       </c>
       <c r="B178" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D178">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -3528,13 +3558,13 @@
         <v>45352</v>
       </c>
       <c r="B179" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D179">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -3542,13 +3572,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B180" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C180" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -3559,33 +3589,33 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B181" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C181" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E181">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="B182" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C182" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D182">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -3596,16 +3626,16 @@
         <v>45383</v>
       </c>
       <c r="B183" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C183" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E183">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -3613,10 +3643,10 @@
         <v>45383</v>
       </c>
       <c r="B184" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C184" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D184">
         <v>10000</v>
@@ -3630,10 +3660,10 @@
         <v>45383</v>
       </c>
       <c r="B185" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C185" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D185">
         <v>10000</v>
@@ -3647,16 +3677,16 @@
         <v>45383</v>
       </c>
       <c r="B186" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C186" t="s">
         <v>20</v>
       </c>
       <c r="D186">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -3664,16 +3694,16 @@
         <v>45383</v>
       </c>
       <c r="B187" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C187" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D187">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -3681,13 +3711,13 @@
         <v>45383</v>
       </c>
       <c r="B188" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D188">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -3695,13 +3725,13 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B189" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -3712,33 +3742,33 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B190" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C190" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E190">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="B191" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C191" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D191">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -3749,16 +3779,16 @@
         <v>45413</v>
       </c>
       <c r="B192" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C192" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D192">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E192">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -3766,10 +3796,10 @@
         <v>45413</v>
       </c>
       <c r="B193" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C193" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D193">
         <v>10000</v>
@@ -3783,10 +3813,10 @@
         <v>45413</v>
       </c>
       <c r="B194" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C194" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D194">
         <v>10000</v>
@@ -3800,16 +3830,16 @@
         <v>45413</v>
       </c>
       <c r="B195" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C195" t="s">
         <v>20</v>
       </c>
       <c r="D195">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -3817,16 +3847,16 @@
         <v>45413</v>
       </c>
       <c r="B196" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C196" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D196">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -3834,13 +3864,13 @@
         <v>45413</v>
       </c>
       <c r="B197" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C197" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D197">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -3848,13 +3878,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B198" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -3865,33 +3895,33 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B199" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C199" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E199">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="B200" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C200" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D200">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -3902,16 +3932,16 @@
         <v>45444</v>
       </c>
       <c r="B201" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C201" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D201">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E201">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -3919,10 +3949,10 @@
         <v>45444</v>
       </c>
       <c r="B202" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C202" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D202">
         <v>10000</v>
@@ -3936,10 +3966,10 @@
         <v>45444</v>
       </c>
       <c r="B203" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C203" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D203">
         <v>10000</v>
@@ -3953,16 +3983,16 @@
         <v>45444</v>
       </c>
       <c r="B204" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C204" t="s">
         <v>20</v>
       </c>
       <c r="D204">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -3970,16 +4000,16 @@
         <v>45444</v>
       </c>
       <c r="B205" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C205" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D205">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -3987,13 +4017,13 @@
         <v>45444</v>
       </c>
       <c r="B206" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C206" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D206">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -4001,13 +4031,13 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B207" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -4018,33 +4048,33 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B208" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C208" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D208">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E208">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="B209" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C209" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D209">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -4055,16 +4085,16 @@
         <v>45474</v>
       </c>
       <c r="B210" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C210" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D210">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E210">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -4072,10 +4102,10 @@
         <v>45474</v>
       </c>
       <c r="B211" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C211" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D211">
         <v>10000</v>
@@ -4089,10 +4119,10 @@
         <v>45474</v>
       </c>
       <c r="B212" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D212">
         <v>10000</v>
@@ -4106,16 +4136,16 @@
         <v>45474</v>
       </c>
       <c r="B213" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C213" t="s">
         <v>20</v>
       </c>
       <c r="D213">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -4123,16 +4153,16 @@
         <v>45474</v>
       </c>
       <c r="B214" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C214" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D214">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -4140,13 +4170,13 @@
         <v>45474</v>
       </c>
       <c r="B215" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C215" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D215">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -4154,13 +4184,13 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B216" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C216" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -4171,33 +4201,33 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B217" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C217" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D217">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E217">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="B218" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C218" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D218">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -4208,16 +4238,16 @@
         <v>45505</v>
       </c>
       <c r="B219" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E219">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -4225,10 +4255,10 @@
         <v>45505</v>
       </c>
       <c r="B220" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C220" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D220">
         <v>10000</v>
@@ -4242,10 +4272,10 @@
         <v>45505</v>
       </c>
       <c r="B221" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C221" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D221">
         <v>10000</v>
@@ -4259,16 +4289,16 @@
         <v>45505</v>
       </c>
       <c r="B222" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C222" t="s">
         <v>20</v>
       </c>
       <c r="D222">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -4276,16 +4306,16 @@
         <v>45505</v>
       </c>
       <c r="B223" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C223" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D223">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -4293,13 +4323,13 @@
         <v>45505</v>
       </c>
       <c r="B224" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D224">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -4307,13 +4337,13 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B225" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C225" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -4324,33 +4354,33 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B226" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C226" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D226">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E226">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="B227" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C227" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D227">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -4361,16 +4391,16 @@
         <v>45536</v>
       </c>
       <c r="B228" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C228" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D228">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E228">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -4378,10 +4408,10 @@
         <v>45536</v>
       </c>
       <c r="B229" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C229" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D229">
         <v>10000</v>
@@ -4395,10 +4425,10 @@
         <v>45536</v>
       </c>
       <c r="B230" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C230" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D230">
         <v>10000</v>
@@ -4412,16 +4442,16 @@
         <v>45536</v>
       </c>
       <c r="B231" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C231" t="s">
         <v>20</v>
       </c>
       <c r="D231">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -4429,16 +4459,16 @@
         <v>45536</v>
       </c>
       <c r="B232" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C232" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D232">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -4446,13 +4476,13 @@
         <v>45536</v>
       </c>
       <c r="B233" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C233" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D233">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -4460,13 +4490,13 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B234" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C234" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -4477,33 +4507,33 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B235" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C235" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E235">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="B236" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C236" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D236">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -4514,16 +4544,16 @@
         <v>45566</v>
       </c>
       <c r="B237" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C237" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D237">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E237">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -4531,10 +4561,10 @@
         <v>45566</v>
       </c>
       <c r="B238" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C238" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D238">
         <v>10000</v>
@@ -4548,10 +4578,10 @@
         <v>45566</v>
       </c>
       <c r="B239" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C239" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D239">
         <v>10000</v>
@@ -4565,16 +4595,16 @@
         <v>45566</v>
       </c>
       <c r="B240" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C240" t="s">
         <v>20</v>
       </c>
       <c r="D240">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -4582,16 +4612,16 @@
         <v>45566</v>
       </c>
       <c r="B241" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C241" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D241">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -4599,13 +4629,13 @@
         <v>45566</v>
       </c>
       <c r="B242" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C242" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D242">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -4613,13 +4643,13 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B243" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -4630,33 +4660,33 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B244" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C244" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E244">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="B245" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C245" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D245">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -4667,16 +4697,16 @@
         <v>45597</v>
       </c>
       <c r="B246" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C246" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D246">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E246">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -4684,10 +4714,10 @@
         <v>45597</v>
       </c>
       <c r="B247" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C247" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D247">
         <v>10000</v>
@@ -4701,10 +4731,10 @@
         <v>45597</v>
       </c>
       <c r="B248" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C248" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D248">
         <v>10000</v>
@@ -4718,16 +4748,16 @@
         <v>45597</v>
       </c>
       <c r="B249" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C249" t="s">
         <v>20</v>
       </c>
       <c r="D249">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -4735,16 +4765,16 @@
         <v>45597</v>
       </c>
       <c r="B250" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C250" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D250">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -4752,13 +4782,13 @@
         <v>45597</v>
       </c>
       <c r="B251" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C251" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D251">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -4766,13 +4796,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B252" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -4783,33 +4813,33 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B253" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C253" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D253">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E253">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="B254" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C254" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D254">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -4820,16 +4850,16 @@
         <v>45627</v>
       </c>
       <c r="B255" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C255" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E255">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -4837,10 +4867,10 @@
         <v>45627</v>
       </c>
       <c r="B256" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C256" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D256">
         <v>10000</v>
@@ -4854,10 +4884,10 @@
         <v>45627</v>
       </c>
       <c r="B257" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C257" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D257">
         <v>10000</v>
@@ -4871,16 +4901,16 @@
         <v>45627</v>
       </c>
       <c r="B258" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C258" t="s">
         <v>20</v>
       </c>
       <c r="D258">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -4888,16 +4918,16 @@
         <v>45627</v>
       </c>
       <c r="B259" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C259" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D259">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -4905,13 +4935,13 @@
         <v>45627</v>
       </c>
       <c r="B260" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C260" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D260">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -4919,13 +4949,13 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B261" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C261" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -4936,33 +4966,33 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B262" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C262" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D262">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E262">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B263" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C263" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D263">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -4973,16 +5003,16 @@
         <v>45658</v>
       </c>
       <c r="B264" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C264" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D264">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E264">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -4990,10 +5020,10 @@
         <v>45658</v>
       </c>
       <c r="B265" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C265" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D265">
         <v>10000</v>
@@ -5007,10 +5037,10 @@
         <v>45658</v>
       </c>
       <c r="B266" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C266" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D266">
         <v>10000</v>
@@ -5024,16 +5054,16 @@
         <v>45658</v>
       </c>
       <c r="B267" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C267" t="s">
         <v>20</v>
       </c>
       <c r="D267">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -5041,16 +5071,16 @@
         <v>45658</v>
       </c>
       <c r="B268" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C268" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D268">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -5058,13 +5088,13 @@
         <v>45658</v>
       </c>
       <c r="B269" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C269" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D269">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -5072,13 +5102,13 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B270" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C270" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -5089,33 +5119,33 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B271" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C271" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D271">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E271">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>45658</v>
+        <v>45689</v>
       </c>
       <c r="B272" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C272" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D272">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -5126,16 +5156,16 @@
         <v>45689</v>
       </c>
       <c r="B273" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C273" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D273">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E273">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -5143,10 +5173,10 @@
         <v>45689</v>
       </c>
       <c r="B274" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C274" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D274">
         <v>10000</v>
@@ -5160,10 +5190,10 @@
         <v>45689</v>
       </c>
       <c r="B275" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C275" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D275">
         <v>10000</v>
@@ -5177,16 +5207,16 @@
         <v>45689</v>
       </c>
       <c r="B276" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C276" t="s">
         <v>20</v>
       </c>
       <c r="D276">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -5194,16 +5224,16 @@
         <v>45689</v>
       </c>
       <c r="B277" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C277" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D277">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -5211,13 +5241,13 @@
         <v>45689</v>
       </c>
       <c r="B278" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C278" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D278">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -5225,13 +5255,13 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B279" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C279" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D279">
         <v>0</v>
@@ -5242,33 +5272,33 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B280" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C280" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D280">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E280">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>45689</v>
+        <v>45717</v>
       </c>
       <c r="B281" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C281" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D281">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -5279,16 +5309,16 @@
         <v>45717</v>
       </c>
       <c r="B282" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C282" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D282">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E282">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -5296,10 +5326,10 @@
         <v>45717</v>
       </c>
       <c r="B283" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C283" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D283">
         <v>10000</v>
@@ -5313,10 +5343,10 @@
         <v>45717</v>
       </c>
       <c r="B284" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C284" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D284">
         <v>10000</v>
@@ -5330,16 +5360,16 @@
         <v>45717</v>
       </c>
       <c r="B285" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C285" t="s">
         <v>20</v>
       </c>
       <c r="D285">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -5347,16 +5377,16 @@
         <v>45717</v>
       </c>
       <c r="B286" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C286" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D286">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -5364,13 +5394,13 @@
         <v>45717</v>
       </c>
       <c r="B287" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C287" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D287">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -5378,13 +5408,13 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B288" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C288" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -5395,33 +5425,33 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B289" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C289" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D289">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E289">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
-        <v>45717</v>
+        <v>45748</v>
       </c>
       <c r="B290" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C290" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D290">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E290">
         <v>0</v>
@@ -5432,16 +5462,16 @@
         <v>45748</v>
       </c>
       <c r="B291" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C291" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D291">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E291">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -5449,10 +5479,10 @@
         <v>45748</v>
       </c>
       <c r="B292" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C292" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D292">
         <v>10000</v>
@@ -5466,10 +5496,10 @@
         <v>45748</v>
       </c>
       <c r="B293" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C293" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D293">
         <v>10000</v>
@@ -5483,16 +5513,16 @@
         <v>45748</v>
       </c>
       <c r="B294" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C294" t="s">
         <v>20</v>
       </c>
       <c r="D294">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -5500,16 +5530,16 @@
         <v>45748</v>
       </c>
       <c r="B295" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C295" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D295">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E295">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -5517,13 +5547,13 @@
         <v>45748</v>
       </c>
       <c r="B296" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C296" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D296">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -5531,13 +5561,13 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="B297" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C297" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -5548,33 +5578,33 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="B298" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C298" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D298">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E298">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
-        <v>45748</v>
+        <v>45778</v>
       </c>
       <c r="B299" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C299" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D299">
-        <v>60000</v>
+        <v>10000</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -5585,16 +5615,16 @@
         <v>45778</v>
       </c>
       <c r="B300" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C300" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D300">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E300">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -5602,10 +5632,10 @@
         <v>45778</v>
       </c>
       <c r="B301" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C301" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D301">
         <v>10000</v>
@@ -5619,10 +5649,10 @@
         <v>45778</v>
       </c>
       <c r="B302" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C302" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D302">
         <v>10000</v>
@@ -5636,16 +5666,16 @@
         <v>45778</v>
       </c>
       <c r="B303" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C303" t="s">
         <v>20</v>
       </c>
       <c r="D303">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E303">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -5653,16 +5683,16 @@
         <v>45778</v>
       </c>
       <c r="B304" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C304" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D304">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E304">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -5670,66 +5700,15 @@
         <v>45778</v>
       </c>
       <c r="B305" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C305" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D305">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="E305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A306" s="2">
-        <v>45778</v>
-      </c>
-      <c r="B306" t="s">
-        <v>28</v>
-      </c>
-      <c r="C306" t="s">
-        <v>20</v>
-      </c>
-      <c r="D306">
-        <v>0</v>
-      </c>
-      <c r="E306">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A307" s="2">
-        <v>45778</v>
-      </c>
-      <c r="B307" t="s">
-        <v>29</v>
-      </c>
-      <c r="C307" t="s">
-        <v>21</v>
-      </c>
-      <c r="D307">
-        <v>0</v>
-      </c>
-      <c r="E307">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A308" s="2">
-        <v>45778</v>
-      </c>
-      <c r="B308" t="s">
-        <v>30</v>
-      </c>
-      <c r="C308" t="s">
-        <v>14</v>
-      </c>
-      <c r="D308">
-        <v>60000</v>
-      </c>
-      <c r="E308">
         <v>0</v>
       </c>
     </row>

--- a/trial_balance_cashflow.xlsx
+++ b/trial_balance_cashflow.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avinash/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0171CB-7A03-8440-A3D5-D68FFC86EB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E06907A-C611-0A4C-988E-D2EDA9DE4880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$286</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -99,9 +102,6 @@
   </si>
   <si>
     <t>Cash Flow Financing</t>
-  </si>
-  <si>
-    <t>Investments</t>
   </si>
   <si>
     <t>Loans Given</t>
@@ -514,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E305"/>
+  <dimension ref="A1:E286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
         <v>45322</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>16</v>
@@ -618,7 +618,7 @@
         <v>45322</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
@@ -635,7 +635,7 @@
         <v>45322</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>18</v>
@@ -720,7 +720,7 @@
         <v>45351</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>16</v>
@@ -738,7 +738,7 @@
         <v>45351</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
@@ -755,7 +755,7 @@
         <v>45351</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -772,7 +772,7 @@
         <v>45351</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -787,7 +787,7 @@
         <v>45351</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -3096,41 +3096,41 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>45322</v>
+        <v>45352</v>
       </c>
       <c r="B152" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D152">
-        <v>13592</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>45292</v>
+        <v>45352</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C153" t="s">
         <v>19</v>
       </c>
       <c r="D153">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E153">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>45292</v>
+        <v>45352</v>
       </c>
       <c r="B154" t="s">
         <v>23</v>
@@ -3147,13 +3147,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>45292</v>
+        <v>45352</v>
       </c>
       <c r="B155" t="s">
         <v>24</v>
       </c>
       <c r="C155" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D155">
         <v>10000</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>45292</v>
+        <v>45352</v>
       </c>
       <c r="B156" t="s">
         <v>25</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>45292</v>
+        <v>45352</v>
       </c>
       <c r="B157" t="s">
         <v>26</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>45292</v>
+        <v>45352</v>
       </c>
       <c r="B158" t="s">
         <v>27</v>
@@ -3207,21 +3207,21 @@
         <v>20</v>
       </c>
       <c r="D158">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>45292</v>
+        <v>45352</v>
       </c>
       <c r="B159" t="s">
         <v>28</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -3232,58 +3232,58 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>45292</v>
+        <v>45352</v>
       </c>
       <c r="B160" t="s">
         <v>29</v>
       </c>
       <c r="C160" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E160">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>45292</v>
+        <v>45383</v>
       </c>
       <c r="B161" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D161">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C162" t="s">
         <v>19</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E162">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="B163" t="s">
         <v>23</v>
@@ -3300,13 +3300,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="B164" t="s">
         <v>24</v>
       </c>
       <c r="C164" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D164">
         <v>10000</v>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="B165" t="s">
         <v>25</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="B166" t="s">
         <v>26</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="B167" t="s">
         <v>27</v>
@@ -3360,21 +3360,21 @@
         <v>20</v>
       </c>
       <c r="D167">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="B168" t="s">
         <v>28</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -3385,58 +3385,58 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="B169" t="s">
         <v>29</v>
       </c>
       <c r="C169" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E169">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="B170" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D170">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C171" t="s">
         <v>19</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E171">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="B172" t="s">
         <v>23</v>
@@ -3453,13 +3453,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="B173" t="s">
         <v>24</v>
       </c>
       <c r="C173" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D173">
         <v>10000</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="B174" t="s">
         <v>25</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="B175" t="s">
         <v>26</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="B176" t="s">
         <v>27</v>
@@ -3513,21 +3513,21 @@
         <v>20</v>
       </c>
       <c r="D176">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="B177" t="s">
         <v>28</v>
       </c>
       <c r="C177" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -3538,58 +3538,58 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="B178" t="s">
         <v>29</v>
       </c>
       <c r="C178" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D178">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E178">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="B179" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C179" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D179">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="B180" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C180" t="s">
         <v>19</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E180">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="B181" t="s">
         <v>23</v>
@@ -3606,13 +3606,13 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="B182" t="s">
         <v>24</v>
       </c>
       <c r="C182" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D182">
         <v>10000</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="B183" t="s">
         <v>25</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="B184" t="s">
         <v>26</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="B185" t="s">
         <v>27</v>
@@ -3666,21 +3666,21 @@
         <v>20</v>
       </c>
       <c r="D185">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="B186" t="s">
         <v>28</v>
       </c>
       <c r="C186" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -3691,58 +3691,58 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="B187" t="s">
         <v>29</v>
       </c>
       <c r="C187" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E187">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>45383</v>
+        <v>45474</v>
       </c>
       <c r="B188" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D188">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="B189" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C189" t="s">
         <v>19</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E189">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="B190" t="s">
         <v>23</v>
@@ -3759,13 +3759,13 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="B191" t="s">
         <v>24</v>
       </c>
       <c r="C191" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D191">
         <v>10000</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="B192" t="s">
         <v>25</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="B193" t="s">
         <v>26</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="B194" t="s">
         <v>27</v>
@@ -3819,21 +3819,21 @@
         <v>20</v>
       </c>
       <c r="D194">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="B195" t="s">
         <v>28</v>
       </c>
       <c r="C195" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -3844,58 +3844,58 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="B196" t="s">
         <v>29</v>
       </c>
       <c r="C196" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E196">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>45413</v>
+        <v>45505</v>
       </c>
       <c r="B197" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C197" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D197">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="B198" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C198" t="s">
         <v>19</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E198">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="B199" t="s">
         <v>23</v>
@@ -3912,13 +3912,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="B200" t="s">
         <v>24</v>
       </c>
       <c r="C200" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D200">
         <v>10000</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="B201" t="s">
         <v>25</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="B202" t="s">
         <v>26</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="B203" t="s">
         <v>27</v>
@@ -3972,21 +3972,21 @@
         <v>20</v>
       </c>
       <c r="D203">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="B204" t="s">
         <v>28</v>
       </c>
       <c r="C204" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -3997,58 +3997,58 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="B205" t="s">
         <v>29</v>
       </c>
       <c r="C205" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E205">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>45444</v>
+        <v>45536</v>
       </c>
       <c r="B206" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C206" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D206">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>45474</v>
+        <v>45536</v>
       </c>
       <c r="B207" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C207" t="s">
         <v>19</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E207">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>45474</v>
+        <v>45536</v>
       </c>
       <c r="B208" t="s">
         <v>23</v>
@@ -4065,13 +4065,13 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>45474</v>
+        <v>45536</v>
       </c>
       <c r="B209" t="s">
         <v>24</v>
       </c>
       <c r="C209" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D209">
         <v>10000</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>45474</v>
+        <v>45536</v>
       </c>
       <c r="B210" t="s">
         <v>25</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
-        <v>45474</v>
+        <v>45536</v>
       </c>
       <c r="B211" t="s">
         <v>26</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
-        <v>45474</v>
+        <v>45536</v>
       </c>
       <c r="B212" t="s">
         <v>27</v>
@@ -4125,21 +4125,21 @@
         <v>20</v>
       </c>
       <c r="D212">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
-        <v>45474</v>
+        <v>45536</v>
       </c>
       <c r="B213" t="s">
         <v>28</v>
       </c>
       <c r="C213" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -4150,58 +4150,58 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
-        <v>45474</v>
+        <v>45536</v>
       </c>
       <c r="B214" t="s">
         <v>29</v>
       </c>
       <c r="C214" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D214">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E214">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
-        <v>45474</v>
+        <v>45566</v>
       </c>
       <c r="B215" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C215" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D215">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="B216" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C216" t="s">
         <v>19</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E216">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="B217" t="s">
         <v>23</v>
@@ -4218,13 +4218,13 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="B218" t="s">
         <v>24</v>
       </c>
       <c r="C218" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D218">
         <v>10000</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="B219" t="s">
         <v>25</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="B220" t="s">
         <v>26</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="B221" t="s">
         <v>27</v>
@@ -4278,21 +4278,21 @@
         <v>20</v>
       </c>
       <c r="D221">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="B222" t="s">
         <v>28</v>
       </c>
       <c r="C222" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -4303,58 +4303,58 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="B223" t="s">
         <v>29</v>
       </c>
       <c r="C223" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E223">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
-        <v>45505</v>
+        <v>45597</v>
       </c>
       <c r="B224" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C224" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D224">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
-        <v>45536</v>
+        <v>45597</v>
       </c>
       <c r="B225" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C225" t="s">
         <v>19</v>
       </c>
       <c r="D225">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E225">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
-        <v>45536</v>
+        <v>45597</v>
       </c>
       <c r="B226" t="s">
         <v>23</v>
@@ -4371,13 +4371,13 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
-        <v>45536</v>
+        <v>45597</v>
       </c>
       <c r="B227" t="s">
         <v>24</v>
       </c>
       <c r="C227" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D227">
         <v>10000</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
-        <v>45536</v>
+        <v>45597</v>
       </c>
       <c r="B228" t="s">
         <v>25</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
-        <v>45536</v>
+        <v>45597</v>
       </c>
       <c r="B229" t="s">
         <v>26</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
-        <v>45536</v>
+        <v>45597</v>
       </c>
       <c r="B230" t="s">
         <v>27</v>
@@ -4431,21 +4431,21 @@
         <v>20</v>
       </c>
       <c r="D230">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>45536</v>
+        <v>45597</v>
       </c>
       <c r="B231" t="s">
         <v>28</v>
       </c>
       <c r="C231" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -4456,58 +4456,58 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>45536</v>
+        <v>45597</v>
       </c>
       <c r="B232" t="s">
         <v>29</v>
       </c>
       <c r="C232" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D232">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E232">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
-        <v>45536</v>
+        <v>45627</v>
       </c>
       <c r="B233" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C233" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D233">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
-        <v>45566</v>
+        <v>45627</v>
       </c>
       <c r="B234" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C234" t="s">
         <v>19</v>
       </c>
       <c r="D234">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E234">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
-        <v>45566</v>
+        <v>45627</v>
       </c>
       <c r="B235" t="s">
         <v>23</v>
@@ -4524,13 +4524,13 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
-        <v>45566</v>
+        <v>45627</v>
       </c>
       <c r="B236" t="s">
         <v>24</v>
       </c>
       <c r="C236" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D236">
         <v>10000</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
-        <v>45566</v>
+        <v>45627</v>
       </c>
       <c r="B237" t="s">
         <v>25</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
-        <v>45566</v>
+        <v>45627</v>
       </c>
       <c r="B238" t="s">
         <v>26</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
-        <v>45566</v>
+        <v>45627</v>
       </c>
       <c r="B239" t="s">
         <v>27</v>
@@ -4584,21 +4584,21 @@
         <v>20</v>
       </c>
       <c r="D239">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
-        <v>45566</v>
+        <v>45627</v>
       </c>
       <c r="B240" t="s">
         <v>28</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -4609,58 +4609,58 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
-        <v>45566</v>
+        <v>45627</v>
       </c>
       <c r="B241" t="s">
         <v>29</v>
       </c>
       <c r="C241" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D241">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E241">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
-        <v>45566</v>
+        <v>45658</v>
       </c>
       <c r="B242" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C242" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D242">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="B243" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C243" t="s">
         <v>19</v>
       </c>
       <c r="D243">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E243">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="B244" t="s">
         <v>23</v>
@@ -4677,13 +4677,13 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="B245" t="s">
         <v>24</v>
       </c>
       <c r="C245" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D245">
         <v>10000</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="B246" t="s">
         <v>25</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="B247" t="s">
         <v>26</v>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="B248" t="s">
         <v>27</v>
@@ -4737,21 +4737,21 @@
         <v>20</v>
       </c>
       <c r="D248">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="B249" t="s">
         <v>28</v>
       </c>
       <c r="C249" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -4762,58 +4762,58 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>45597</v>
+        <v>45658</v>
       </c>
       <c r="B250" t="s">
         <v>29</v>
       </c>
       <c r="C250" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E250">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
-        <v>45597</v>
+        <v>45689</v>
       </c>
       <c r="B251" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C251" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D251">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
-        <v>45627</v>
+        <v>45689</v>
       </c>
       <c r="B252" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C252" t="s">
         <v>19</v>
       </c>
       <c r="D252">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E252">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
-        <v>45627</v>
+        <v>45689</v>
       </c>
       <c r="B253" t="s">
         <v>23</v>
@@ -4830,13 +4830,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
-        <v>45627</v>
+        <v>45689</v>
       </c>
       <c r="B254" t="s">
         <v>24</v>
       </c>
       <c r="C254" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D254">
         <v>10000</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
-        <v>45627</v>
+        <v>45689</v>
       </c>
       <c r="B255" t="s">
         <v>25</v>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
-        <v>45627</v>
+        <v>45689</v>
       </c>
       <c r="B256" t="s">
         <v>26</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
-        <v>45627</v>
+        <v>45689</v>
       </c>
       <c r="B257" t="s">
         <v>27</v>
@@ -4890,21 +4890,21 @@
         <v>20</v>
       </c>
       <c r="D257">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
-        <v>45627</v>
+        <v>45689</v>
       </c>
       <c r="B258" t="s">
         <v>28</v>
       </c>
       <c r="C258" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -4915,58 +4915,58 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
-        <v>45627</v>
+        <v>45689</v>
       </c>
       <c r="B259" t="s">
         <v>29</v>
       </c>
       <c r="C259" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D259">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E259">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <v>45627</v>
+        <v>45717</v>
       </c>
       <c r="B260" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C260" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D260">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
-        <v>45658</v>
+        <v>45717</v>
       </c>
       <c r="B261" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C261" t="s">
         <v>19</v>
       </c>
       <c r="D261">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E261">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <v>45658</v>
+        <v>45717</v>
       </c>
       <c r="B262" t="s">
         <v>23</v>
@@ -4983,13 +4983,13 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <v>45658</v>
+        <v>45717</v>
       </c>
       <c r="B263" t="s">
         <v>24</v>
       </c>
       <c r="C263" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D263">
         <v>10000</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <v>45658</v>
+        <v>45717</v>
       </c>
       <c r="B264" t="s">
         <v>25</v>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <v>45658</v>
+        <v>45717</v>
       </c>
       <c r="B265" t="s">
         <v>26</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <v>45658</v>
+        <v>45717</v>
       </c>
       <c r="B266" t="s">
         <v>27</v>
@@ -5043,21 +5043,21 @@
         <v>20</v>
       </c>
       <c r="D266">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>45658</v>
+        <v>45717</v>
       </c>
       <c r="B267" t="s">
         <v>28</v>
       </c>
       <c r="C267" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -5068,58 +5068,58 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>45658</v>
+        <v>45717</v>
       </c>
       <c r="B268" t="s">
         <v>29</v>
       </c>
       <c r="C268" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D268">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E268">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <v>45658</v>
+        <v>45748</v>
       </c>
       <c r="B269" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C269" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D269">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="B270" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C270" t="s">
         <v>19</v>
       </c>
       <c r="D270">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E270">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="B271" t="s">
         <v>23</v>
@@ -5136,13 +5136,13 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="B272" t="s">
         <v>24</v>
       </c>
       <c r="C272" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D272">
         <v>10000</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="B273" t="s">
         <v>25</v>
@@ -5170,7 +5170,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="B274" t="s">
         <v>26</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="B275" t="s">
         <v>27</v>
@@ -5196,21 +5196,21 @@
         <v>20</v>
       </c>
       <c r="D275">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="B276" t="s">
         <v>28</v>
       </c>
       <c r="C276" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -5221,58 +5221,58 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
-        <v>45689</v>
+        <v>45748</v>
       </c>
       <c r="B277" t="s">
         <v>29</v>
       </c>
       <c r="C277" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D277">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E277">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
-        <v>45689</v>
+        <v>45778</v>
       </c>
       <c r="B278" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C278" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D278">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="B279" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C279" t="s">
         <v>19</v>
       </c>
       <c r="D279">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E279">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="B280" t="s">
         <v>23</v>
@@ -5289,13 +5289,13 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="B281" t="s">
         <v>24</v>
       </c>
       <c r="C281" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D281">
         <v>10000</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="B282" t="s">
         <v>25</v>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="B283" t="s">
         <v>26</v>
@@ -5340,7 +5340,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="B284" t="s">
         <v>27</v>
@@ -5349,21 +5349,21 @@
         <v>20</v>
       </c>
       <c r="D284">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="B285" t="s">
         <v>28</v>
       </c>
       <c r="C285" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -5374,341 +5374,18 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
-        <v>45717</v>
+        <v>45778</v>
       </c>
       <c r="B286" t="s">
         <v>29</v>
       </c>
       <c r="C286" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D286">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="E286">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A287" s="2">
-        <v>45717</v>
-      </c>
-      <c r="B287" t="s">
-        <v>30</v>
-      </c>
-      <c r="C287" t="s">
-        <v>14</v>
-      </c>
-      <c r="D287">
-        <v>60000</v>
-      </c>
-      <c r="E287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A288" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B288" t="s">
-        <v>11</v>
-      </c>
-      <c r="C288" t="s">
-        <v>19</v>
-      </c>
-      <c r="D288">
-        <v>0</v>
-      </c>
-      <c r="E288">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A289" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B289" t="s">
-        <v>23</v>
-      </c>
-      <c r="C289" t="s">
-        <v>19</v>
-      </c>
-      <c r="D289">
-        <v>10000</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A290" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B290" t="s">
-        <v>24</v>
-      </c>
-      <c r="C290" t="s">
-        <v>19</v>
-      </c>
-      <c r="D290">
-        <v>10000</v>
-      </c>
-      <c r="E290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A291" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B291" t="s">
-        <v>25</v>
-      </c>
-      <c r="C291" t="s">
-        <v>20</v>
-      </c>
-      <c r="D291">
-        <v>10000</v>
-      </c>
-      <c r="E291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A292" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B292" t="s">
-        <v>26</v>
-      </c>
-      <c r="C292" t="s">
-        <v>20</v>
-      </c>
-      <c r="D292">
-        <v>10000</v>
-      </c>
-      <c r="E292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A293" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B293" t="s">
-        <v>27</v>
-      </c>
-      <c r="C293" t="s">
-        <v>20</v>
-      </c>
-      <c r="D293">
-        <v>10000</v>
-      </c>
-      <c r="E293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A294" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B294" t="s">
-        <v>28</v>
-      </c>
-      <c r="C294" t="s">
-        <v>20</v>
-      </c>
-      <c r="D294">
-        <v>0</v>
-      </c>
-      <c r="E294">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A295" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B295" t="s">
-        <v>29</v>
-      </c>
-      <c r="C295" t="s">
-        <v>21</v>
-      </c>
-      <c r="D295">
-        <v>0</v>
-      </c>
-      <c r="E295">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A296" s="2">
-        <v>45748</v>
-      </c>
-      <c r="B296" t="s">
-        <v>30</v>
-      </c>
-      <c r="C296" t="s">
-        <v>14</v>
-      </c>
-      <c r="D296">
-        <v>60000</v>
-      </c>
-      <c r="E296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A297" s="2">
-        <v>45778</v>
-      </c>
-      <c r="B297" t="s">
-        <v>11</v>
-      </c>
-      <c r="C297" t="s">
-        <v>19</v>
-      </c>
-      <c r="D297">
-        <v>0</v>
-      </c>
-      <c r="E297">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A298" s="2">
-        <v>45778</v>
-      </c>
-      <c r="B298" t="s">
-        <v>23</v>
-      </c>
-      <c r="C298" t="s">
-        <v>19</v>
-      </c>
-      <c r="D298">
-        <v>10000</v>
-      </c>
-      <c r="E298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A299" s="2">
-        <v>45778</v>
-      </c>
-      <c r="B299" t="s">
-        <v>24</v>
-      </c>
-      <c r="C299" t="s">
-        <v>19</v>
-      </c>
-      <c r="D299">
-        <v>10000</v>
-      </c>
-      <c r="E299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A300" s="2">
-        <v>45778</v>
-      </c>
-      <c r="B300" t="s">
-        <v>25</v>
-      </c>
-      <c r="C300" t="s">
-        <v>20</v>
-      </c>
-      <c r="D300">
-        <v>10000</v>
-      </c>
-      <c r="E300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A301" s="2">
-        <v>45778</v>
-      </c>
-      <c r="B301" t="s">
-        <v>26</v>
-      </c>
-      <c r="C301" t="s">
-        <v>20</v>
-      </c>
-      <c r="D301">
-        <v>10000</v>
-      </c>
-      <c r="E301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A302" s="2">
-        <v>45778</v>
-      </c>
-      <c r="B302" t="s">
-        <v>27</v>
-      </c>
-      <c r="C302" t="s">
-        <v>20</v>
-      </c>
-      <c r="D302">
-        <v>10000</v>
-      </c>
-      <c r="E302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A303" s="2">
-        <v>45778</v>
-      </c>
-      <c r="B303" t="s">
-        <v>28</v>
-      </c>
-      <c r="C303" t="s">
-        <v>20</v>
-      </c>
-      <c r="D303">
-        <v>0</v>
-      </c>
-      <c r="E303">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A304" s="2">
-        <v>45778</v>
-      </c>
-      <c r="B304" t="s">
-        <v>29</v>
-      </c>
-      <c r="C304" t="s">
-        <v>21</v>
-      </c>
-      <c r="D304">
-        <v>0</v>
-      </c>
-      <c r="E304">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A305" s="2">
-        <v>45778</v>
-      </c>
-      <c r="B305" t="s">
-        <v>30</v>
-      </c>
-      <c r="C305" t="s">
-        <v>14</v>
-      </c>
-      <c r="D305">
-        <v>60000</v>
-      </c>
-      <c r="E305">
         <v>0</v>
       </c>
     </row>
